--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3697007.575559908</v>
+        <v>-3697719.877382952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.9644325309576</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>174.2840207388482</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>8.230418637765849</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693648</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>89.63304051350461</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311278</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.280779994893891</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192472</v>
+        <v>165.0347817725252</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>9.369887371298148</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.400308273078921</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161002</v>
       </c>
       <c r="R15" t="n">
-        <v>50.46839022710126</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693654</v>
+        <v>13.44252716693653</v>
       </c>
       <c r="T15" t="n">
         <v>36.82265945242251</v>
@@ -1743,7 +1743,7 @@
         <v>59.07980534382084</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233447</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="W15" t="n">
         <v>88.55631942394382</v>
@@ -1752,7 +1752,7 @@
         <v>39.16465028640283</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="16">
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256635</v>
+        <v>25.28169700256633</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311278</v>
       </c>
       <c r="T16" t="n">
         <v>45.61329429725524</v>
@@ -1847,7 +1847,7 @@
         <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524304</v>
       </c>
       <c r="E17" t="n">
         <v>74.03124113465174</v>
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156615</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>159.1595237934319</v>
+        <v>181.1942010645841</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>123.1931642909621</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>50.02777591104442</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156615</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>100.1101969257895</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
-        <v>89.84768953172558</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2567,13 +2567,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818252</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>104.903192486604</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489348</v>
+        <v>1.48617308148929</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140131</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W27" t="n">
-        <v>77.84399109255648</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147504</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444718</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818264</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>37.27941480276714</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>47.70712540471951</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489319</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
         <v>204.5257125717833</v>
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008953984</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.8380811017845</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
         <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>92.29127236670234</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250504</v>
+        <v>0.658463214625022</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>229.5476343269875</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>3.000454048605349</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.07182574316036</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.1255839753153</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945778</v>
+        <v>9.449098059457752</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770036</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358465</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847007</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377272</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303162</v>
       </c>
     </row>
     <row r="35">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>47.84276906987146</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>1.966806590128012</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.1841868546301</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.5725210998696</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173738</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="42">
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>84.77961969659506</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>18.09600701974663</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173738</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>136.2841354081993</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>200.4961064656463</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
         <v>6.719070557086891</v>
@@ -4796,58 +4796,58 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.295227129213883</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.295227129213883</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.462484272827225</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
+        <v>6.590454258427762</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.629741416440567</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4905,28 +4905,28 @@
         <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>6.333867974168094</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.102302681225188</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.8750197444398</v>
+        <v>366.7180455831227</v>
       </c>
       <c r="C11" t="n">
-        <v>15.07983466553978</v>
+        <v>366.7180455831227</v>
       </c>
       <c r="D11" t="n">
-        <v>15.07983466553978</v>
+        <v>205.4817875132643</v>
       </c>
       <c r="E11" t="n">
         <v>15.07983466553978</v>
@@ -5042,49 +5042,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8825731524726</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6034156332327</v>
+        <v>471.7526286748828</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4653147201799</v>
+        <v>552.6145277618301</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558723</v>
+        <v>627.9424208975225</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485401</v>
+        <v>662.1630555901903</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324994</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="S11" t="n">
-        <v>704.1243288271096</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="T11" t="n">
-        <v>704.1243288271096</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="U11" t="n">
-        <v>704.1243288271096</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="V11" t="n">
-        <v>704.1243288271096</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="W11" t="n">
-        <v>704.1243288271096</v>
+        <v>542.7625109758986</v>
       </c>
       <c r="X11" t="n">
-        <v>520.6551872698992</v>
+        <v>542.7625109758986</v>
       </c>
       <c r="Y11" t="n">
-        <v>330.2532344221747</v>
+        <v>366.7180455831227</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54436736382068</v>
+        <v>85.86314415338481</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553978</v>
+        <v>76.39861145510385</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553978</v>
+        <v>76.39861145510385</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>76.39861145510385</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>76.39861145510385</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O12" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596544</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900216</v>
+        <v>420.5703292542761</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825243</v>
+        <v>383.3757237467786</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281598</v>
+        <v>323.6991526924141</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005493</v>
+        <v>260.5671761648035</v>
       </c>
       <c r="W12" t="n">
-        <v>484.020597899596</v>
+        <v>171.1163484638502</v>
       </c>
       <c r="X12" t="n">
-        <v>393.4821731384802</v>
+        <v>131.5560956493018</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.0802202907558</v>
+        <v>85.86314415338481</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875852</v>
+        <v>15.60586471875846</v>
       </c>
       <c r="C13" t="n">
-        <v>15.60586471875852</v>
+        <v>27.18003706804293</v>
       </c>
       <c r="D13" t="n">
-        <v>15.60586471875852</v>
+        <v>59.81599483137643</v>
       </c>
       <c r="E13" t="n">
-        <v>15.60586471875852</v>
+        <v>95.92339654281078</v>
       </c>
       <c r="F13" t="n">
-        <v>54.43503283403349</v>
+        <v>134.7525646580857</v>
       </c>
       <c r="G13" t="n">
-        <v>54.43503283403349</v>
+        <v>144.1055789917419</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63566066745072</v>
+        <v>156.306206825159</v>
       </c>
       <c r="I13" t="n">
-        <v>79.79800379170248</v>
+        <v>169.4685499494107</v>
       </c>
       <c r="J13" t="n">
-        <v>137.1275737961598</v>
+        <v>169.4685499494107</v>
       </c>
       <c r="K13" t="n">
-        <v>247.1346749698988</v>
+        <v>169.4685499494107</v>
       </c>
       <c r="L13" t="n">
-        <v>360.7048354267193</v>
+        <v>169.4685499494107</v>
       </c>
       <c r="M13" t="n">
-        <v>360.7048354267193</v>
+        <v>320.8706347160434</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>211.8260097303287</v>
+        <v>376.0607112056712</v>
       </c>
       <c r="C14" t="n">
-        <v>211.8260097303287</v>
+        <v>376.0607112056712</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8260097303287</v>
+        <v>376.0607112056712</v>
       </c>
       <c r="E14" t="n">
-        <v>211.8260097303287</v>
+        <v>376.0607112056712</v>
       </c>
       <c r="F14" t="n">
-        <v>21.42405688260431</v>
+        <v>376.0607112056712</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1311296807749</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L14" t="n">
-        <v>364.7440836668296</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="M14" t="n">
-        <v>445.6059827537769</v>
+        <v>282.5546877385419</v>
       </c>
       <c r="N14" t="n">
-        <v>632.2189367398316</v>
+        <v>357.8825808742343</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4395714324994</v>
+        <v>544.4955348602891</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324994</v>
+        <v>705.9212637442484</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769887</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769887</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769887</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9917332769887</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="W14" t="n">
-        <v>592.6299154257775</v>
+        <v>542.7625109758986</v>
       </c>
       <c r="X14" t="n">
-        <v>592.6299154257775</v>
+        <v>542.7625109758986</v>
       </c>
       <c r="Y14" t="n">
-        <v>402.2279625780531</v>
+        <v>376.0607112056712</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382073</v>
+        <v>135.4168104113624</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="E15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553977</v>
+        <v>125.9522777130815</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553977</v>
+        <v>17.50438847673061</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R15" t="n">
-        <v>696.0747170130874</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="S15" t="n">
-        <v>682.4964067434545</v>
+        <v>597.3939718323677</v>
       </c>
       <c r="T15" t="n">
-        <v>645.301801235957</v>
+        <v>560.1993663248702</v>
       </c>
       <c r="U15" t="n">
-        <v>585.6252301815925</v>
+        <v>500.5227952705057</v>
       </c>
       <c r="V15" t="n">
-        <v>522.4932536539819</v>
+        <v>310.1208424227812</v>
       </c>
       <c r="W15" t="n">
-        <v>433.0424259530286</v>
+        <v>220.6700147218278</v>
       </c>
       <c r="X15" t="n">
-        <v>393.4821731384802</v>
+        <v>181.1097619072794</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.0802202907558</v>
+        <v>135.4168104113624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875846</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>48.24182248209195</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>84.3492241935263</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>123.1783923088012</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>132.5314066424574</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7320344758745</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>157.8943776001262</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>215.2239476045835</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2310487783225</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L16" t="n">
-        <v>469.7675322041625</v>
+        <v>159.6163180913798</v>
       </c>
       <c r="M16" t="n">
-        <v>469.7675322041625</v>
+        <v>311.0184028580125</v>
       </c>
       <c r="N16" t="n">
-        <v>520.7166611426684</v>
+        <v>311.0184028580125</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426684</v>
+        <v>351.8217271348929</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426684</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426684</v>
@@ -5473,13 +5473,13 @@
         <v>211.9754335064923</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117149</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099497</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961949</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040794</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>85.24370436895066</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K17" t="n">
-        <v>271.8566583550054</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L17" t="n">
-        <v>318.5775008357655</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="M17" t="n">
-        <v>399.4393999227128</v>
+        <v>338.4282104329352</v>
       </c>
       <c r="N17" t="n">
-        <v>474.7672930584051</v>
+        <v>413.7561035686276</v>
       </c>
       <c r="O17" t="n">
-        <v>508.9879277510729</v>
+        <v>447.9767382612955</v>
       </c>
       <c r="P17" t="n">
-        <v>508.9879277510729</v>
+        <v>447.9767382612955</v>
       </c>
       <c r="Q17" t="n">
-        <v>508.9879277510729</v>
+        <v>508.9879277510732</v>
       </c>
       <c r="R17" t="n">
-        <v>610.5283920402443</v>
+        <v>610.5283920402446</v>
       </c>
       <c r="S17" t="n">
-        <v>679.7597616450952</v>
+        <v>679.7597616450955</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879308</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530776</v>
+        <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122033</v>
+        <v>540.806030812204</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="C18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553977</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596543</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S18" t="n">
-        <v>556.6509361119299</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="T18" t="n">
-        <v>556.6509361119299</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="U18" t="n">
-        <v>556.6509361119299</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="V18" t="n">
-        <v>366.2489832642055</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="W18" t="n">
-        <v>175.8470304164811</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="X18" t="n">
-        <v>15.07983466553977</v>
+        <v>373.6264905921483</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.07983466553977</v>
+        <v>373.6264905921483</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961949</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040794</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F20" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J20" t="n">
-        <v>201.6927886515945</v>
+        <v>85.14038870971942</v>
       </c>
       <c r="K20" t="n">
-        <v>201.6927886515945</v>
+        <v>85.14038870971942</v>
       </c>
       <c r="L20" t="n">
-        <v>248.4136311323547</v>
+        <v>271.7533426957742</v>
       </c>
       <c r="M20" t="n">
-        <v>329.2755302193019</v>
+        <v>352.6152417827216</v>
       </c>
       <c r="N20" t="n">
-        <v>404.6034233549943</v>
+        <v>427.943134918414</v>
       </c>
       <c r="O20" t="n">
-        <v>438.824058047662</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="P20" t="n">
-        <v>438.824058047662</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110816</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="R20" t="n">
-        <v>563.704233900253</v>
+        <v>563.7042339002533</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051039</v>
+        <v>632.9356035051042</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369975</v>
+        <v>707.1675751369977</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235043</v>
       </c>
       <c r="X20" t="n">
-        <v>626.500875753078</v>
+        <v>626.5008757530783</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122037</v>
+        <v>540.806030812204</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>486.5347424141597</v>
+        <v>506.1178291310773</v>
       </c>
       <c r="C21" t="n">
-        <v>486.5347424141597</v>
+        <v>506.1178291310773</v>
       </c>
       <c r="D21" t="n">
-        <v>325.7546261751914</v>
+        <v>345.337712892109</v>
       </c>
       <c r="E21" t="n">
-        <v>325.7546261751914</v>
+        <v>345.337712892109</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3269098924356</v>
+        <v>345.337712892109</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553978</v>
+        <v>195.0906376652132</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821020002</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S21" t="n">
-        <v>486.5347424141597</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="T21" t="n">
-        <v>486.5347424141597</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="U21" t="n">
-        <v>486.5347424141597</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="V21" t="n">
-        <v>486.5347424141597</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="W21" t="n">
-        <v>486.5347424141597</v>
+        <v>696.5197819788018</v>
       </c>
       <c r="X21" t="n">
-        <v>486.5347424141597</v>
+        <v>506.1178291310773</v>
       </c>
       <c r="Y21" t="n">
-        <v>486.5347424141597</v>
+        <v>506.1178291310773</v>
       </c>
     </row>
     <row r="22">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940554</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993312</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993312</v>
+        <v>139.9600105181304</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993312</v>
+        <v>139.9600105181304</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6741998406932</v>
+        <v>186.6808529988906</v>
       </c>
       <c r="M23" t="n">
-        <v>198.5360989276405</v>
+        <v>267.5427520858379</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8639920633329</v>
+        <v>342.8706452215304</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0846267560007</v>
+        <v>377.0912799141983</v>
       </c>
       <c r="P23" t="n">
-        <v>308.0846267560007</v>
+        <v>377.0912799141983</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110816</v>
+        <v>563.704233900253</v>
       </c>
       <c r="R23" t="n">
         <v>563.704233900253</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="C24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="D24" t="n">
-        <v>465.895694160692</v>
+        <v>450.1921658630323</v>
       </c>
       <c r="E24" t="n">
-        <v>292.3324902821064</v>
+        <v>276.6289619844467</v>
       </c>
       <c r="F24" t="n">
-        <v>292.3324902821064</v>
+        <v>116.2012457016908</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
         <v>15.07983466553978</v>
@@ -6069,49 +6069,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998546</v>
       </c>
       <c r="O24" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R24" t="n">
-        <v>656.2976470084164</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="S24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="T24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="U24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="V24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="W24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="X24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
       <c r="Y24" t="n">
-        <v>465.895694160692</v>
+        <v>610.9722821020006</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874106</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942527</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471344</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845028</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
@@ -6245,7 +6245,7 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666887</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757104</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.4799032937276</v>
+        <v>665.6351144932715</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4799032937276</v>
+        <v>476.2228402262352</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4799032937276</v>
+        <v>315.442723987267</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>141.8795201086814</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6805912031638</v>
+        <v>784.6805912031642</v>
       </c>
       <c r="U27" t="n">
-        <v>545.0562785800439</v>
+        <v>760.6974407255</v>
       </c>
       <c r="V27" t="n">
-        <v>517.6177226291335</v>
+        <v>733.2588847745897</v>
       </c>
       <c r="W27" t="n">
-        <v>438.9874285962482</v>
+        <v>679.5014776503365</v>
       </c>
       <c r="X27" t="n">
-        <v>219.4794342129445</v>
+        <v>675.6346454124883</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.4799032937276</v>
+        <v>665.6351144932715</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514208</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737348</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389712</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471338</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141565</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589548</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279523992</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.35279020236</v>
+        <v>234.3527902023606</v>
       </c>
       <c r="C30" t="n">
-        <v>234.35279020236</v>
+        <v>234.3527902023606</v>
       </c>
       <c r="D30" t="n">
-        <v>73.57267396339171</v>
+        <v>234.3527902023606</v>
       </c>
       <c r="E30" t="n">
-        <v>73.57267396339171</v>
+        <v>234.3527902023606</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514207</v>
+        <v>234.3527902023606</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514207</v>
+        <v>84.10571497546482</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514207</v>
+        <v>84.10571497546482</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514207</v>
+        <v>84.10571497546482</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031638</v>
+        <v>569.0394290577087</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254995</v>
+        <v>545.0562785800445</v>
       </c>
       <c r="V30" t="n">
-        <v>517.6177226291336</v>
+        <v>517.6177226291342</v>
       </c>
       <c r="W30" t="n">
-        <v>463.8603155048804</v>
+        <v>248.2191533594255</v>
       </c>
       <c r="X30" t="n">
-        <v>244.3523211215768</v>
+        <v>244.3523211215774</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.35279020236</v>
+        <v>234.3527902023606</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J31" t="n">
-        <v>163.7385424872657</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K31" t="n">
-        <v>180.7574272613007</v>
+        <v>76.68866776826206</v>
       </c>
       <c r="L31" t="n">
-        <v>180.7574272613007</v>
+        <v>256.208272701326</v>
       </c>
       <c r="M31" t="n">
-        <v>180.7574272613007</v>
+        <v>256.208272701326</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7574272613007</v>
+        <v>256.208272701326</v>
       </c>
       <c r="O31" t="n">
-        <v>180.7574272613007</v>
+        <v>256.208272701326</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7574272613007</v>
+        <v>256.208272701326</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>256.208272701326</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909794</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737341</v>
+        <v>48.13006019737336</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510277</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806683</v>
+        <v>877.5242945806673</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.8175276600996</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734624</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581618</v>
+        <v>403.2687994581615</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977746</v>
+        <v>196.6771705977744</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465896</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>151.9003389533356</v>
       </c>
       <c r="K32" t="n">
-        <v>357.4097545154539</v>
+        <v>357.4097545154543</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831707</v>
+        <v>616.299932783171</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570746</v>
+        <v>909.331167657075</v>
       </c>
       <c r="N32" t="n">
         <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6722,28 +6722,28 @@
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.70005889646</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.620437351989</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.17865516378</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>491.8597450306763</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>302.44747076364</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>302.44747076364</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>128.8842668850545</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
         <v>73.6240854598214</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800948</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.9258361627604</v>
+        <v>792.8646804800948</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627604</v>
+        <v>792.8646804800948</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627604</v>
+        <v>792.8646804800948</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045533</v>
+        <v>792.1995661218876</v>
       </c>
       <c r="U33" t="n">
-        <v>762.1136418994791</v>
+        <v>560.3332688219002</v>
       </c>
       <c r="V33" t="n">
-        <v>735.5111565211589</v>
+        <v>317.2535507255342</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5898199694959</v>
+        <v>47.85498145582555</v>
       </c>
       <c r="X33" t="n">
-        <v>679.559058304238</v>
+        <v>44.82421979056762</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.3955979576114</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257916</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>119.3660703972831</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>119.3660703972831</v>
+        <v>80.81632805301666</v>
       </c>
       <c r="H34" t="n">
-        <v>119.3660703972831</v>
+        <v>80.81632805301666</v>
       </c>
       <c r="I34" t="n">
-        <v>119.3660703972831</v>
+        <v>80.81632805301666</v>
       </c>
       <c r="J34" t="n">
-        <v>119.3660703972831</v>
+        <v>80.81632805301666</v>
       </c>
       <c r="K34" t="n">
-        <v>163.0558862708941</v>
+        <v>80.81632805301666</v>
       </c>
       <c r="L34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.054080196677</v>
       </c>
       <c r="M34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.054080196677</v>
       </c>
       <c r="N34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.054080196677</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.054080196677</v>
       </c>
       <c r="P34" t="n">
-        <v>163.0558862708941</v>
+        <v>260.054080196677</v>
       </c>
       <c r="Q34" t="n">
-        <v>249.2804059537984</v>
+        <v>260.054080196677</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842373</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898355</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416533</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370223</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099199</v>
+        <v>46.20197908099194</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010583</v>
+        <v>38.51814573010581</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>592.5660885414866</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="C36" t="n">
-        <v>403.1538142744503</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="D36" t="n">
-        <v>403.1538142744503</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="E36" t="n">
-        <v>229.5906103958647</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="F36" t="n">
-        <v>69.16289411310882</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="J36" t="n">
         <v>20.83686474960229</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857559</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684216</v>
+        <v>776.0541124623943</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684216</v>
+        <v>776.0541124623943</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684216</v>
+        <v>776.0541124623943</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684216</v>
+        <v>776.0541124623943</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684216</v>
+        <v>536.4297998392744</v>
       </c>
       <c r="V36" t="n">
-        <v>771.1019414684216</v>
+        <v>293.3500817429085</v>
       </c>
       <c r="W36" t="n">
-        <v>771.1019414684216</v>
+        <v>293.3500817429085</v>
       </c>
       <c r="X36" t="n">
-        <v>771.1019414684216</v>
+        <v>73.8420873596049</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.1019414684216</v>
+        <v>73.8420873596049</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Q37" t="n">
         <v>56.03780166411086</v>
@@ -7135,10 +7135,10 @@
         <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.88991636563219</v>
+        <v>154.3562454108448</v>
       </c>
       <c r="C39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>68.88991636563219</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
         <v>20.83686474960229</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857559</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684216</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="R39" t="n">
-        <v>771.1019414684216</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="S39" t="n">
-        <v>771.1019414684216</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="T39" t="n">
-        <v>771.1019414684216</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="U39" t="n">
-        <v>531.4776288453018</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="V39" t="n">
-        <v>288.3979107489358</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="W39" t="n">
-        <v>288.3979107489358</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="X39" t="n">
-        <v>68.88991636563219</v>
+        <v>558.5327914024523</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.88991636563219</v>
+        <v>332.8920983377799</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
         <v>56.03780166411086</v>
@@ -7372,10 +7372,10 @@
         <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.1276389564251</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706561</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660729</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>238.1412535628044</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>284.8620960435646</v>
+        <v>508.5207149393091</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538332</v>
+        <v>589.3826140262564</v>
       </c>
       <c r="N41" t="n">
-        <v>918.251231312847</v>
+        <v>903.3101786852701</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055148</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901258</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1325.915536757533</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262769</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988578</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7515,25 +7515,25 @@
         <v>778.3310522028247</v>
       </c>
       <c r="S42" t="n">
-        <v>584.8050003644365</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="T42" t="n">
-        <v>499.1690208729264</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="U42" t="n">
-        <v>499.1690208729264</v>
+        <v>760.0522572333837</v>
       </c>
       <c r="V42" t="n">
-        <v>499.1690208729264</v>
+        <v>516.9725391370177</v>
       </c>
       <c r="W42" t="n">
-        <v>473.2146629319814</v>
+        <v>247.573969867309</v>
       </c>
       <c r="X42" t="n">
-        <v>253.7066685486777</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.96538615316653</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C43" t="n">
-        <v>46.96538615316653</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D43" t="n">
-        <v>46.96538615316653</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E43" t="n">
-        <v>46.96538615316653</v>
+        <v>29.071565433636</v>
       </c>
       <c r="F43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="G43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="H43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="I43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="J43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="K43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="L43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="N43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="O43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="P43" t="n">
-        <v>46.96538615316653</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.0578949031935</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="R43" t="n">
-        <v>113.0578949031935</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S43" t="n">
-        <v>113.0578949031935</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X43" t="n">
-        <v>46.96538615316653</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.96538615316653</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753175</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564259</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465751</v>
+        <v>610.387850646576</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706563</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660721</v>
+        <v>314.773079666073</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>223.2002009352265</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L44" t="n">
-        <v>269.9210434159867</v>
+        <v>316.5783918915236</v>
       </c>
       <c r="M44" t="n">
-        <v>589.3826140262554</v>
+        <v>636.0399625017922</v>
       </c>
       <c r="N44" t="n">
-        <v>903.3101786852692</v>
+        <v>949.9675271608058</v>
       </c>
       <c r="O44" t="n">
-        <v>1176.130484901258</v>
+        <v>984.1881618534736</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901258</v>
+        <v>1207.846780749217</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1357.631832605491</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889993</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181027</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.1389925876065</v>
+        <v>378.2583659900099</v>
       </c>
       <c r="C45" t="n">
-        <v>165.7267183205703</v>
+        <v>188.8460917229736</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988578</v>
@@ -7770,7 +7770,7 @@
         <v>759.315538579214</v>
       </c>
       <c r="Y45" t="n">
-        <v>533.6748455145416</v>
+        <v>556.7942189169451</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="I46" t="n">
-        <v>103.4612086200412</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="J46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="K46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="L46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="M46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="N46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="O46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5418873023909</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0578949031935</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.2365425770137</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,10 +9252,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9729,7 +9729,7 @@
         <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913209</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.97454369380788</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321114</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
         <v>240.6899088095807</v>
@@ -23276,7 +23276,7 @@
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240821</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929901</v>
+        <v>16.73328122929905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>44.31761724675147</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613488</v>
+        <v>29.85328252653395</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518373</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
@@ -23504,13 +23504,13 @@
         <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769852</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>234.4091288146869</v>
+        <v>52.1919754903335</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>62.86150506240827</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929911</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S14" t="n">
-        <v>49.3687304053804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>44.31761724675148</v>
@@ -23561,7 +23561,7 @@
         <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613493</v>
+        <v>39.10252149285694</v>
       </c>
     </row>
     <row r="15">
@@ -26314,19 +26314,19 @@
         <v>22048.29987941149</v>
       </c>
       <c r="C2" t="n">
-        <v>22048.29987941149</v>
+        <v>22048.29987941148</v>
       </c>
       <c r="D2" t="n">
-        <v>22061.03289297875</v>
+        <v>22061.03289297874</v>
       </c>
       <c r="E2" t="n">
         <v>18993.38571872834</v>
       </c>
       <c r="F2" t="n">
-        <v>18993.38571872833</v>
+        <v>18993.38571872835</v>
       </c>
       <c r="G2" t="n">
-        <v>22092.96372146342</v>
+        <v>22092.96372146343</v>
       </c>
       <c r="H2" t="n">
         <v>22092.96372146342</v>
@@ -26335,13 +26335,13 @@
         <v>22092.96372146342</v>
       </c>
       <c r="J2" t="n">
-        <v>22092.96372146345</v>
+        <v>22092.96372146342</v>
       </c>
       <c r="K2" t="n">
         <v>22092.96372146343</v>
       </c>
       <c r="L2" t="n">
-        <v>22092.96372146344</v>
+        <v>22092.96372146342</v>
       </c>
       <c r="M2" t="n">
         <v>22092.96372146339</v>
@@ -26381,7 +26381,7 @@
         <v>95439.52541913331</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592437</v>
+        <v>72254.91485924377</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>378431.1247150002</v>
       </c>
       <c r="J4" t="n">
-        <v>379258.4930688671</v>
+        <v>379258.4930688672</v>
       </c>
       <c r="K4" t="n">
         <v>379258.4930688672</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014885</v>
+        <v>379243.7031014886</v>
       </c>
       <c r="M4" t="n">
         <v>378433.7657281701</v>
@@ -26457,7 +26457,7 @@
         <v>378820.8283918877</v>
       </c>
       <c r="P4" t="n">
-        <v>378820.8283918877</v>
+        <v>378820.8283918878</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284811</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
@@ -26506,10 +26506,10 @@
         <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887324</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887324</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431236.4294010438</v>
+        <v>-431240.895785249</v>
       </c>
       <c r="C6" t="n">
-        <v>-431236.4294010438</v>
+        <v>-431240.895785249</v>
       </c>
       <c r="D6" t="n">
-        <v>-432302.1418066553</v>
+        <v>-432305.3348895038</v>
       </c>
       <c r="E6" t="n">
-        <v>-596598.9430695119</v>
+        <v>-596908.9008697855</v>
       </c>
       <c r="F6" t="n">
-        <v>-317472.8278907977</v>
+        <v>-317782.7856910712</v>
       </c>
       <c r="G6" t="n">
         <v>-490450.0251784943</v>
@@ -26540,10 +26540,10 @@
         <v>-395010.499759361</v>
       </c>
       <c r="I6" t="n">
-        <v>-395010.4997593609</v>
+        <v>-395010.499759361</v>
       </c>
       <c r="J6" t="n">
-        <v>-548111.4895744465</v>
+        <v>-548111.4895744466</v>
       </c>
       <c r="K6" t="n">
         <v>-404615.2065675673</v>
@@ -26552,16 +26552,16 @@
         <v>-500577.180275498</v>
       </c>
       <c r="M6" t="n">
-        <v>-443451.4638977169</v>
+        <v>-443451.4638977167</v>
       </c>
       <c r="N6" t="n">
         <v>-397254.097605394</v>
       </c>
       <c r="O6" t="n">
-        <v>-472779.9073585412</v>
+        <v>-472779.9073585413</v>
       </c>
       <c r="P6" t="n">
-        <v>-400524.9924992975</v>
+        <v>-400524.9924992976</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26701,19 @@
         <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758396</v>
@@ -26796,28 +26796,28 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500672</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500672</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929161</v>
+        <v>63.13594470929164</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003855</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008434</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
-        <v>350.2054973811788</v>
+        <v>350.3354128343698</v>
       </c>
       <c r="D8" t="n">
         <v>337.7721596422273</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>351.3166263719594</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
         <v>256.6898085504863</v>
@@ -27941,19 +27941,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.4244871192585</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28114,10 +28114,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>160.7168484597795</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>19.41168532311832</v>
       </c>
       <c r="Q11" t="n">
         <v>178.1482641530678</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>178.1482641530678</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446044746268</v>
+        <v>140.514185836861</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757039</v>
       </c>
       <c r="T12" t="n">
         <v>178.1482641530678</v>
@@ -28232,10 +28232,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
-        <v>127.679873925966</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.88635281477841</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28248,19 +28248,19 @@
         <v>178.1482641530678</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H13" t="n">
         <v>178.1482641530678</v>
@@ -28269,28 +28269,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
+        <v>120.2396075829089</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.02998013918996</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32.15181624817885</v>
+      </c>
+      <c r="M13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
+        <v>167.4535523381099</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.47888399777676</v>
+      </c>
+      <c r="P13" t="n">
+        <v>58.47859890024885</v>
+      </c>
+      <c r="Q13" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="L13" t="n">
-        <v>146.869150042947</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.21686539889344</v>
-      </c>
-      <c r="N13" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.47888399777679</v>
-      </c>
-      <c r="P13" t="n">
-        <v>58.47859890024887</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530678</v>
@@ -28348,10 +28348,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>76.781618964594</v>
       </c>
       <c r="K14" t="n">
-        <v>70.05882475099402</v>
+        <v>6.727192146300894</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>15.09197235108875</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>138.267766868473</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>50.07486211082364</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.2514105619764</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530678</v>
@@ -28463,7 +28463,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615498</v>
       </c>
       <c r="W15" t="n">
         <v>178.1482641530678</v>
@@ -28472,7 +28472,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.88635281477843</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28482,52 +28482,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530678</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530678</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>178.1482641530678</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530678</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>67.02998013918995</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>67.98392397383276</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777679</v>
+        <v>78.69436306533272</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024887</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28585,13 +28585,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>91.21631291309667</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2251254655481</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>151.3392011685106</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269844</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28658,13 +28658,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757133</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764136</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615506</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>58.15339064603873</v>
+        <v>36.11871337488651</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28743,25 +28743,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838413</v>
+        <v>91.1119536613479</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108875</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2872032630983</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28889,19 +28889,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
-        <v>68.39762702904221</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
@@ -28940,10 +28940,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>216.6768076659672</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022334</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28980,25 +28980,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459405</v>
+        <v>202.9232107348876</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108875</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.347234870837</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29120,25 +29120,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>48.63440754883729</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.87211125735207</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757099</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
@@ -29217,25 +29217,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240002</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>53.92024663332438</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>188.8605924844551</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29454,52 +29454,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N28" t="n">
-        <v>213.4847505240009</v>
+        <v>60.82380230565567</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.823922870452</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29594,16 +29594,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>121.5440243171612</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>4.76804497918306</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.484750524001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29691,31 +29691,31 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
+        <v>120.2396075829089</v>
+      </c>
+      <c r="K31" t="n">
+        <v>108.2137865564829</v>
+      </c>
+      <c r="L31" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="K31" t="n">
-        <v>84.22077284023545</v>
-      </c>
-      <c r="L31" t="n">
-        <v>32.15181624817887</v>
-      </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q31" t="n">
+        <v>127.2169859636892</v>
+      </c>
+      <c r="R31" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="R31" t="n">
-        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407502</v>
       </c>
       <c r="K32" t="n">
-        <v>194.1953356407499</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>66.53216675322599</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901102</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7007749271525</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
@@ -29931,10 +29931,10 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
-        <v>111.1611072842516</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>213.2000507367246</v>
       </c>
       <c r="M34" t="n">
         <v>25.21686539889342</v>
@@ -29949,31 +29949,31 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q34" t="n">
-        <v>214.3124603908652</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3124603908652</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>100.9018354047554</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
         <v>125.7355245857741</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>4.902649284032996</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890776</v>
@@ -30119,16 +30119,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30186,7 +30186,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.2169859636892</v>
+        <v>162.7734878975363</v>
       </c>
       <c r="R37" t="n">
         <v>203.4299611556341</v>
@@ -30207,7 +30207,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
-        <v>257.4759573420895</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>55.33396466973579</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>4.902649284032975</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
@@ -30356,10 +30356,10 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30414,7 +30414,7 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N40" t="n">
-        <v>52.07665930312835</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O40" t="n">
         <v>37.47888399777676</v>
@@ -30444,7 +30444,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>257.4759573420895</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30484,22 +30484,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>54.69629248006439</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>39.60432012897674</v>
       </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30587,25 +30587,25 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>130.1913039088952</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>219.132062477142</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,10 +30624,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>142.6918886360943</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
@@ -30660,7 +30660,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.9770958122012</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
@@ -30669,7 +30669,7 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T43" t="n">
-        <v>241.009769215476</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30681,7 +30681,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>241.009769215476</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30721,10 +30721,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>39.60432012897564</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>80.00576280644928</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
@@ -30733,10 +30733,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="P44" t="n">
-        <v>15.09197235108869</v>
       </c>
       <c r="Q44" t="n">
         <v>241.009769215476</v>
@@ -30745,10 +30745,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22.88817966837928</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161005</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890776</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>22.88817966837934</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>224.7773058741923</v>
       </c>
       <c r="G46" t="n">
         <v>168.7007749271525</v>
@@ -30873,19 +30873,19 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>124.361505241848</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
         <v>32.15181624817885</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889341</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N46" t="n">
         <v>16.52015736928131</v>
@@ -30894,7 +30894,7 @@
         <v>37.47888399777676</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>241.009769215476</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T46" t="n">
         <v>241.009769215476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631739</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217856</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501028</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645947</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246063</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727863</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032872</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401909</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556028</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521941</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178823</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318175</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610837</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168795</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705391</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650135</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122631</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729631</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000176</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133257</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427559</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134029</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795506</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922251</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935665</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971374</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014385</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600461</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786396</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309195</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545178</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542664</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629253</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679441</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.00995128367959079</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.10169233712263</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795505</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375089</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773298</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,19 +34357,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631739</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217856</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645946</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246063</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L44" t="n">
         <v>64.18332941727861</v>
@@ -34381,25 +34381,25 @@
         <v>72.57191151401908</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556028</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P44" t="n">
         <v>58.4867195752194</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610835</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H45" t="n">
         <v>2.10169233712263</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729631</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884586</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L45" t="n">
         <v>47.24989970447584</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133257</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N45" t="n">
         <v>56.59775381427558</v>
@@ -34469,13 +34469,13 @@
         <v>27.77822605795505</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935664</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971373</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375089</v>
@@ -34521,7 +34521,7 @@
         <v>1.622059239773298</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014384</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602958</v>
@@ -34533,10 +34533,10 @@
         <v>27.1238822160046</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786396</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O46" t="n">
         <v>25.78709310837958</v>
@@ -34545,19 +34545,19 @@
         <v>22.06531301221261</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542662</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567944</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00995128367959079</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.069987028295762</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>153.9896563134785</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>4.319712972029619</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,43 +35541,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997363</v>
+        <v>0.5313434880996795</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.69108318109542</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235706</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084278</v>
       </c>
       <c r="F13" t="n">
-        <v>39.22138193462118</v>
+        <v>39.22138193462112</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915303</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840125</v>
+        <v>12.32386649840119</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510279</v>
+        <v>13.29529608510274</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015888</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>114.7173337947681</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>150.9333949688285</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937857</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>63.33163260469306</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641148</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192472</v>
+        <v>76.0887809451439</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564582</v>
+        <v>48.55602983105113</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543477</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404389</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181814</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880996795</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235706</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084278</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462112</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915303</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840119</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510273</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015882</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>51.46376660455142</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>41.21547906755596</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937857</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J17" t="n">
-        <v>14.43469394850262</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>61.62746413108862</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4979333192472</v>
+        <v>14.33033469675388</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.5754662256763</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150843</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>126.1415917702936</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.6354978334151</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404389</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.573531469144</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.2678851251076</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547196</v>
+        <v>44.30364493637435</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.60693690676277</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
@@ -36841,19 +36841,19 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543476</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296709</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472315</v>
+        <v>206.9747236472316</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.86782985903287</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.245142941092</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>17.19079270104548</v>
+        <v>41.18380641729291</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.3329342758221</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26776456031175</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05478936836688</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>117.4137166761561</v>
       </c>
       <c r="K32" t="n">
-        <v>187.468143494449</v>
+        <v>207.5852682445644</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734513</v>
@@ -37078,19 +37078,19 @@
         <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>290.4012413360092</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397766</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849842</v>
+        <v>19.43091500849845</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589713</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.61168546371279</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>44.1311271450616</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.0482344885458</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.09547442717601</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88249923523112</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37710,37 +37710,37 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>47.96910033376348</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258605</v>
+        <v>86.79709031156278</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N41" t="n">
         <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936143</v>
+        <v>275.5760668848375</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643874</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.015747423869311</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.0828869970294</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.76010984851204</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.24821076515303</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.09031380723351</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>32.87712798267474</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258605</v>
+        <v>127.1985329890353</v>
       </c>
       <c r="M44" t="n">
         <v>322.6884551618875</v>
@@ -38029,22 +38029,22 @@
         <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848375</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310923</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>85.85042365574567</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.156801147511</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.121897658939075</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.571724849295483</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.24821076515303</v>
+        <v>17.248210765153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
